--- a/music-warehouse/scripts/02_机器详情分布/02-机器分布详情.xlsx
+++ b/music-warehouse/scripts/02_机器详情分布/02-机器分布详情.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="13500" tabRatio="805" activeTab="1"/>
+    <workbookView windowWidth="29500" windowHeight="15520" tabRatio="805" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ODS" sheetId="11" r:id="rId1"/>
     <sheet name="EDS_MAC" sheetId="18" r:id="rId2"/>
+    <sheet name="ODS-EDS" sheetId="19" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ODS!$A$16:$E$91</definedName>
@@ -18,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284">
   <si>
     <t>物理模型名称</t>
   </si>
@@ -901,21 +902,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -938,6 +931,12 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
@@ -949,9 +948,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF333333"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -967,22 +974,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -993,6 +995,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1000,11 +1010,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1022,39 +1048,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1069,9 +1071,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1085,21 +1109,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1107,16 +1116,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1131,7 +1132,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,13 +1228,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1161,7 +1258,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1173,19 +1294,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,19 +1324,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,79 +1378,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,7 +1390,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,8 +1428,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1352,8 +1437,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1369,32 +1469,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1418,22 +1492,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,235 +1527,337 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1678,57 +1865,57 @@
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
+    <cellStyle name="输入" xfId="5" builtinId="20"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="常规 2 2" xfId="44"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="46" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="48" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="50"/>
-    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
+    <cellStyle name="货币" xfId="8" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
+    <cellStyle name="百分比" xfId="10" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
+    <cellStyle name="计算" xfId="16" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
+    <cellStyle name="适中" xfId="18" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
+    <cellStyle name="好" xfId="20" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
+    <cellStyle name="汇总" xfId="22" builtinId="25"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
+    <cellStyle name="输出" xfId="25" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
+    <cellStyle name="常规 2 2" xfId="31"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="33" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9"/>
+    <cellStyle name="标题" xfId="35" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="36" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="37" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="38" builtinId="40"/>
+    <cellStyle name="注释" xfId="39" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="40" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="42" builtinId="51"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="44" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="45" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="46" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="47" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="48" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="49" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="链接单元格" xfId="51" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2022,1545 +2209,1545 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="33.75" style="13" customWidth="1"/>
-    <col min="2" max="2" width="35.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="45.25" style="13" customWidth="1"/>
-    <col min="5" max="5" width="59.5" style="13" customWidth="1"/>
-    <col min="6" max="6" width="40.625" style="13" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="13"/>
+    <col min="1" max="1" width="33.75" style="19" customWidth="1"/>
+    <col min="2" max="2" width="35.25" style="19" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="45.25" style="19" customWidth="1"/>
+    <col min="5" max="5" width="59.5" style="19" customWidth="1"/>
+    <col min="6" max="6" width="40.625" style="19" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="52" customFormat="1" spans="1:5">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" s="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="52" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="13" customFormat="1" spans="1:5">
-      <c r="A3" s="15" t="s">
+    <row r="3" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="53"/>
+      <c r="E3" s="16" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" s="13" customFormat="1" spans="1:5">
-      <c r="A4" s="15" t="s">
+    <row r="4" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="17" t="s">
+      <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="54"/>
+      <c r="E4" s="16" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5" s="13" customFormat="1" spans="1:5">
-      <c r="A5" s="15" t="s">
+    <row r="5" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="17" t="s">
+      <c r="C5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="53"/>
+      <c r="E5" s="16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" s="13" customFormat="1" spans="1:5">
-      <c r="A6" s="15" t="s">
+    <row r="6" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="53"/>
+      <c r="E6" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" s="13" customFormat="1" spans="1:5">
-      <c r="A7" s="15" t="s">
+    <row r="7" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="17" t="s">
+      <c r="C7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="8" s="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A8" s="5" t="s">
+    <row r="8" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="16"/>
-      <c r="E8" s="17" t="s">
+      <c r="C8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="16" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="9" s="13" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A9" s="15" t="s">
+    <row r="9" s="19" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A9" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="17" t="s">
+      <c r="C9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="55"/>
+      <c r="E9" s="16" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" s="13" customFormat="1" spans="1:5">
-      <c r="A10" s="5" t="s">
+    <row r="10" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A10" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="17" t="s">
+      <c r="D10" s="55"/>
+      <c r="E10" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" s="13" customFormat="1" spans="1:5">
-      <c r="A11" s="15" t="s">
+    <row r="11" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A11" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17" t="s">
+      <c r="C11" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="1" spans="1:5">
-      <c r="A12" s="15" t="s">
+    <row r="12" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A12" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="17" t="s">
+      <c r="E12" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" s="13" customFormat="1" spans="1:5">
-      <c r="A13" s="15" t="s">
+    <row r="13" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A13" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="17" t="s">
+      <c r="E13" s="16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" s="13" customFormat="1" spans="1:5">
-      <c r="A14" s="17" t="s">
+    <row r="14" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A14" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E14" s="17" t="s">
+      <c r="E14" s="16" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" s="13" customFormat="1" spans="1:5">
-      <c r="A15" s="15" t="s">
+    <row r="15" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="17" t="s">
+      <c r="E15" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16" spans="3:3">
-      <c r="C16" s="20"/>
-    </row>
-    <row r="17" s="2" customFormat="1" spans="1:5">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-    </row>
-    <row r="18" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A18" s="3" t="s">
+      <c r="C16" s="56"/>
+    </row>
+    <row r="17" s="48" customFormat="1" ht="16.8" spans="1:5">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+    </row>
+    <row r="18" s="52" customFormat="1" spans="1:5">
+      <c r="A18" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="19" s="12" customFormat="1" customHeight="1" spans="1:5">
-      <c r="A19" s="3" t="s">
+    <row r="19" s="52" customFormat="1" ht="16.5" customHeight="1" spans="1:5">
+      <c r="A19" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" s="13" customFormat="1" spans="1:5">
-      <c r="A20" s="15" t="s">
+    <row r="20" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A20" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="16"/>
-      <c r="E20" s="21" t="s">
+      <c r="D20" s="53"/>
+      <c r="E20" s="57" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="21" s="13" customFormat="1" spans="1:5">
-      <c r="A21" s="15" t="s">
+    <row r="21" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="16"/>
-      <c r="E21" s="21" t="s">
+      <c r="D21" s="53"/>
+      <c r="E21" s="57" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="22" s="13" customFormat="1" spans="1:5">
-      <c r="A22" s="15" t="s">
+    <row r="22" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A22" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="21" t="s">
+      <c r="D22" s="53"/>
+      <c r="E22" s="57" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" s="13" customFormat="1" spans="1:5">
-      <c r="A23" s="15" t="s">
+    <row r="23" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A23" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="21" t="s">
+      <c r="C23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="24" s="13" customFormat="1" spans="1:5">
-      <c r="A24" s="15" t="s">
+    <row r="24" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D24" s="16"/>
-      <c r="E24" s="21" t="s">
+      <c r="C24" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="57" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="25" s="13" customFormat="1" spans="1:5">
-      <c r="A25" s="15" t="s">
+    <row r="25" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A25" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="21" t="s">
+      <c r="C25" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="57" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="26" s="13" customFormat="1" spans="1:5">
-      <c r="A26" s="15" t="s">
+    <row r="26" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A26" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="16"/>
-      <c r="E26" s="21" t="s">
+      <c r="C26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="53"/>
+      <c r="E26" s="57" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="27" s="13" customFormat="1" spans="1:5">
-      <c r="A27" s="15" t="s">
+    <row r="27" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A27" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D27" s="19"/>
-      <c r="E27" s="21" t="s">
+      <c r="C27" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="55"/>
+      <c r="E27" s="57" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="28" s="13" customFormat="1" spans="1:5">
-      <c r="A28" s="15" t="s">
+    <row r="28" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A28" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21" t="s">
+      <c r="C28" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="29" s="13" customFormat="1" spans="1:5">
-      <c r="A29" s="15" t="s">
+    <row r="29" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A29" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
+      <c r="C29" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="30" s="13" customFormat="1" spans="1:5">
-      <c r="A30" s="15" t="s">
+    <row r="30" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A30" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C30" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
+      <c r="C30" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="57"/>
+      <c r="E30" s="57" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" s="13" customFormat="1" spans="1:5">
-      <c r="A31" s="15" t="s">
+    <row r="31" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A31" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21" t="s">
+      <c r="C31" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="57"/>
+      <c r="E31" s="57" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="34" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A34" s="3" t="s">
+    <row r="34" s="52" customFormat="1" spans="1:5">
+      <c r="A34" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="35" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A35" s="3" t="s">
+    <row r="35" s="52" customFormat="1" spans="1:5">
+      <c r="A35" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D35" s="3" t="s">
+      <c r="D35" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="22" t="s">
+      <c r="E35" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="36" s="13" customFormat="1" spans="1:5">
-      <c r="A36" s="7" t="s">
+    <row r="36" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A36" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="B36" s="7" t="s">
+      <c r="B36" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6" t="s">
+      <c r="D36" s="42"/>
+      <c r="E36" s="42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="37" s="13" customFormat="1" spans="1:5">
-      <c r="A37" s="7" t="s">
+    <row r="37" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A37" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B37" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6" t="s">
+      <c r="C37" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="38" s="13" customFormat="1" spans="1:5">
-      <c r="A38" s="7" t="s">
+    <row r="38" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A38" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6" t="s">
+      <c r="D38" s="42"/>
+      <c r="E38" s="42" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" s="13" customFormat="1" spans="1:5">
-      <c r="A39" s="7" t="s">
+    <row r="39" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A39" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B39" s="7" t="s">
+      <c r="B39" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="C39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E39" s="6" t="s">
+      <c r="E39" s="42" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="40" s="13" customFormat="1" spans="1:5">
-      <c r="A40" s="7" t="s">
+    <row r="40" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A40" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="B40" s="7" t="s">
+      <c r="B40" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
+      <c r="D40" s="42"/>
+      <c r="E40" s="42" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="41" s="13" customFormat="1" spans="1:5">
-      <c r="A41" s="7" t="s">
+    <row r="41" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A41" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="42"/>
+      <c r="E41" s="42" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="42" s="13" customFormat="1" spans="1:5">
-      <c r="A42" s="7" t="s">
+    <row r="42" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A42" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6" t="s">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" s="13" customFormat="1" spans="1:5">
-      <c r="A43" s="7" t="s">
+    <row r="43" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A43" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="44" s="13" customFormat="1" spans="1:5">
-      <c r="A44" s="7" t="s">
+    <row r="44" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A44" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6" t="s">
+      <c r="D44" s="42"/>
+      <c r="E44" s="42" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="45" s="13" customFormat="1" spans="1:5">
-      <c r="A45" s="7" t="s">
+    <row r="45" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A45" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
+      <c r="C45" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="46" s="13" customFormat="1" spans="1:5">
-      <c r="A46" s="7" t="s">
+    <row r="46" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A46" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
+      <c r="C46" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="47" s="13" customFormat="1" spans="1:5">
-      <c r="A47" s="7" t="s">
+    <row r="47" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A47" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="7" t="s">
+      <c r="B47" s="34" t="s">
         <v>130</v>
       </c>
-      <c r="C47" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6" t="s">
+      <c r="C47" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" s="13" customFormat="1" spans="1:5">
-      <c r="A48" s="7" t="s">
+    <row r="48" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A48" s="34" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="7" t="s">
+      <c r="B48" s="34" t="s">
         <v>133</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6" t="s">
+      <c r="C48" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="49" s="13" customFormat="1" spans="1:5">
-      <c r="A49" s="7" t="s">
+    <row r="49" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A49" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="B49" s="7" t="s">
+      <c r="B49" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="C49" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D49" s="6" t="s">
+      <c r="C49" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="42" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="50" s="13" customFormat="1" spans="1:5">
-      <c r="A50" s="7" t="s">
+    <row r="50" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A50" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="B50" s="7" t="s">
+      <c r="B50" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="C50" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6" t="s">
+      <c r="C50" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="51" s="13" customFormat="1" spans="1:5">
-      <c r="A51" s="7" t="s">
+    <row r="51" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A51" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="B51" s="7" t="s">
+      <c r="B51" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C51" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D51" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="E51" s="6" t="s">
+      <c r="E51" s="42" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="52" s="13" customFormat="1" spans="1:5">
-      <c r="A52" s="7" t="s">
+    <row r="52" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A52" s="34" t="s">
         <v>146</v>
       </c>
-      <c r="B52" s="7" t="s">
+      <c r="B52" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C52" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="6" t="s">
+      <c r="D52" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="42" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="53" s="13" customFormat="1" spans="1:5">
-      <c r="A53" s="7" t="s">
+    <row r="53" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A53" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="B53" s="7" t="s">
+      <c r="B53" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="C53" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6" t="s">
+      <c r="C53" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="54" s="13" customFormat="1" spans="1:5">
-      <c r="A54" s="7" t="s">
+    <row r="54" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A54" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="C54" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6" t="s">
+      <c r="C54" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="55" s="13" customFormat="1" spans="1:5">
-      <c r="A55" s="7" t="s">
+    <row r="55" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A55" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B55" s="7" t="s">
+      <c r="B55" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C55" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6" t="s">
+      <c r="C55" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A58" s="3" t="s">
+    <row r="58" s="52" customFormat="1" spans="1:5">
+      <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="3" t="s">
+      <c r="D58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="14" t="s">
+      <c r="E58" s="45" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="59" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A59" s="3" t="s">
+    <row r="59" s="52" customFormat="1" spans="1:5">
+      <c r="A59" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D59" s="3" t="s">
+      <c r="D59" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E59" s="22" t="s">
+      <c r="E59" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" s="13" customFormat="1" spans="1:5">
-      <c r="A60" s="23" t="s">
+    <row r="60" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A60" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="23" t="s">
+      <c r="B60" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C60" s="23" t="s">
+      <c r="C60" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="21"/>
-      <c r="E60" s="21" t="s">
+      <c r="D60" s="57"/>
+      <c r="E60" s="57" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="61" s="13" customFormat="1" spans="1:5">
-      <c r="A61" s="23" t="s">
+    <row r="61" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A61" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B61" s="23" t="s">
+      <c r="B61" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="C61" s="23" t="s">
+      <c r="C61" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="21"/>
-      <c r="E61" s="21" t="s">
+      <c r="D61" s="57"/>
+      <c r="E61" s="57" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="62" s="13" customFormat="1" spans="1:5">
-      <c r="A62" s="23" t="s">
+    <row r="62" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A62" s="41" t="s">
         <v>135</v>
       </c>
-      <c r="B62" s="23" t="s">
+      <c r="B62" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="C62" s="23" t="s">
+      <c r="C62" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="21" t="s">
+      <c r="D62" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="E62" s="21" t="s">
+      <c r="E62" s="57" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="63" s="13" customFormat="1" spans="1:5">
-      <c r="A63" s="23" t="s">
+    <row r="63" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A63" s="41" t="s">
         <v>165</v>
       </c>
-      <c r="B63" s="23" t="s">
+      <c r="B63" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="C63" s="23" t="s">
+      <c r="C63" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="21"/>
-      <c r="E63" s="21" t="s">
+      <c r="D63" s="57"/>
+      <c r="E63" s="57" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" s="13" customFormat="1" spans="1:5">
-      <c r="A64" s="23" t="s">
+    <row r="64" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A64" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B64" s="23" t="s">
+      <c r="B64" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="C64" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D64" s="21"/>
-      <c r="E64" s="21" t="s">
+      <c r="C64" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="57"/>
+      <c r="E64" s="57" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:5">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="13"/>
-      <c r="E66" s="13"/>
-    </row>
-    <row r="67" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A67" s="3" t="s">
+    <row r="66" customFormat="1" ht="16.8" spans="1:5">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" s="19"/>
+      <c r="E66" s="19"/>
+    </row>
+    <row r="67" s="52" customFormat="1" spans="1:5">
+      <c r="A67" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="3" t="s">
+      <c r="D67" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E67" s="14" t="s">
+      <c r="E67" s="45" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="68" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A68" s="3" t="s">
+    <row r="68" s="52" customFormat="1" spans="1:5">
+      <c r="A68" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D68" s="3" t="s">
+      <c r="D68" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="22" t="s">
+      <c r="E68" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="69" s="13" customFormat="1" spans="1:5">
-      <c r="A69" s="6" t="s">
+    <row r="69" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A69" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="C69" s="7" t="s">
+      <c r="C69" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="6" t="s">
+      <c r="D69" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E69" s="6" t="s">
+      <c r="E69" s="42" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="70" s="13" customFormat="1" spans="1:5">
-      <c r="A70" s="7" t="s">
+    <row r="70" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A70" s="34" t="s">
         <v>178</v>
       </c>
-      <c r="B70" s="7" t="s">
+      <c r="B70" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C70" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6" t="s">
+      <c r="C70" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="71" s="13" customFormat="1" spans="1:5">
-      <c r="A71" s="7" t="s">
+    <row r="71" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A71" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B71" s="7" t="s">
+      <c r="B71" s="34" t="s">
         <v>182</v>
       </c>
-      <c r="C71" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D71" s="6"/>
-      <c r="E71" s="6" t="s">
+      <c r="C71" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="72" s="13" customFormat="1" spans="1:5">
-      <c r="A72" s="7" t="s">
+    <row r="72" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A72" s="34" t="s">
         <v>184</v>
       </c>
-      <c r="B72" s="7" t="s">
+      <c r="B72" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="C72" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D72" s="6"/>
-      <c r="E72" s="6" t="s">
+      <c r="C72" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="73" s="13" customFormat="1" spans="1:5">
-      <c r="A73" s="7" t="s">
+    <row r="73" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A73" s="34" t="s">
         <v>187</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C73" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6" t="s">
+      <c r="C73" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="74" s="13" customFormat="1" spans="1:5">
-      <c r="A74" s="7" t="s">
+    <row r="74" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A74" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B74" s="7" t="s">
+      <c r="B74" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="C74" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D74" s="6"/>
-      <c r="E74" s="6" t="s">
+      <c r="C74" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="42"/>
+      <c r="E74" s="42" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="75" s="13" customFormat="1" spans="1:5">
-      <c r="A75" s="7" t="s">
+    <row r="75" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A75" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="B75" s="7" t="s">
+      <c r="B75" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="C75" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D75" s="6" t="s">
+      <c r="C75" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="E75" s="6" t="s">
+      <c r="E75" s="42" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="76" s="13" customFormat="1" spans="1:5">
-      <c r="A76" s="7" t="s">
+    <row r="76" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A76" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="B76" s="7" t="s">
+      <c r="B76" s="34" t="s">
         <v>62</v>
       </c>
-      <c r="C76" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D76" s="6"/>
-      <c r="E76" s="6" t="s">
+      <c r="C76" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D76" s="42"/>
+      <c r="E76" s="42" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="77" s="13" customFormat="1" spans="1:5">
-      <c r="A77" s="7" t="s">
+    <row r="77" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A77" s="34" t="s">
         <v>198</v>
       </c>
-      <c r="B77" s="7" t="s">
+      <c r="B77" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C77" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D77" s="6"/>
-      <c r="E77" s="6" t="s">
+      <c r="C77" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="42"/>
+      <c r="E77" s="42" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="78" s="13" customFormat="1" spans="1:5">
-      <c r="A78" s="7" t="s">
+    <row r="78" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A78" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B78" s="7" t="s">
+      <c r="B78" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="C78" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6" t="s">
+      <c r="C78" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="42"/>
+      <c r="E78" s="42" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="79" s="13" customFormat="1" ht="17" customHeight="1" spans="1:5">
-      <c r="A79" s="7" t="s">
+    <row r="79" s="19" customFormat="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A79" s="34" t="s">
         <v>156</v>
       </c>
-      <c r="B79" s="7" t="s">
+      <c r="B79" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79" s="6"/>
-      <c r="E79" s="6" t="s">
+      <c r="C79" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D79" s="42"/>
+      <c r="E79" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="80" s="13" customFormat="1" spans="1:5">
-      <c r="A80" s="7" t="s">
+    <row r="80" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A80" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="D80" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="42" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="81" s="13" customFormat="1" spans="1:5">
-      <c r="A81" s="7" t="s">
+    <row r="81" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A81" s="34" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="7" t="s">
+      <c r="B81" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="7" t="s">
+      <c r="C81" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="6" t="s">
+      <c r="D81" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="E81" s="6" t="s">
+      <c r="E81" s="42" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="82" s="13" customFormat="1" spans="1:5">
-      <c r="A82" s="6" t="s">
+    <row r="82" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A82" s="42" t="s">
         <v>210</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B82" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="C82" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6" t="s">
+      <c r="C82" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D82" s="42"/>
+      <c r="E82" s="42" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="83" s="13" customFormat="1" spans="1:5">
-      <c r="A83" s="6" t="s">
+    <row r="83" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A83" s="42" t="s">
         <v>213</v>
       </c>
-      <c r="B83" s="7" t="s">
+      <c r="B83" s="34" t="s">
         <v>214</v>
       </c>
-      <c r="C83" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6" t="s">
+      <c r="C83" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="84" s="13" customFormat="1" spans="1:5">
-      <c r="A84" s="6" t="s">
+    <row r="84" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A84" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B84" s="7" t="s">
+      <c r="B84" s="34" t="s">
         <v>217</v>
       </c>
-      <c r="C84" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6" t="s">
+      <c r="C84" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D84" s="42"/>
+      <c r="E84" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="85" s="13" customFormat="1" spans="1:5">
-      <c r="A85" s="6" t="s">
+    <row r="85" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A85" s="42" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="7" t="s">
+      <c r="B85" s="34" t="s">
         <v>220</v>
       </c>
-      <c r="C85" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6" t="s">
+      <c r="C85" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="86" s="13" customFormat="1" spans="1:5">
-      <c r="A86" s="6" t="s">
+    <row r="86" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A86" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="42" t="s">
         <v>223</v>
       </c>
-      <c r="C86" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6" t="s">
+      <c r="C86" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="87" s="13" customFormat="1" spans="1:5">
-      <c r="A87" s="6" t="s">
+    <row r="87" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A87" s="42" t="s">
         <v>225</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="C87" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6" t="s">
+      <c r="C87" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="88" s="13" customFormat="1" spans="1:5">
-      <c r="A88" s="6" t="s">
+    <row r="88" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A88" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="42" t="s">
         <v>229</v>
       </c>
-      <c r="C88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="6" t="s">
+      <c r="C88" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="89" s="13" customFormat="1" spans="1:5">
-      <c r="A89" s="6" t="s">
+    <row r="89" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A89" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="42" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D89" s="6"/>
-      <c r="E89" s="6" t="s">
+      <c r="C89" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="42"/>
+      <c r="E89" s="42" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="93" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A93" s="3" t="s">
+    <row r="93" s="52" customFormat="1" spans="1:5">
+      <c r="A93" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="3" t="s">
+      <c r="D93" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E93" s="14" t="s">
+      <c r="E93" s="45" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="94" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A94" s="3" t="s">
+    <row r="94" s="52" customFormat="1" spans="1:5">
+      <c r="A94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="45" t="s">
         <v>236</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D94" s="3" t="s">
+      <c r="D94" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E94" s="22" t="s">
+      <c r="E94" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="95" s="13" customFormat="1" spans="1:5">
-      <c r="A95" s="15" t="s">
+    <row r="95" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A95" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="B95" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D95" s="21"/>
-      <c r="E95" s="6" t="s">
+      <c r="D95" s="57"/>
+      <c r="E95" s="42" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="96" s="13" customFormat="1" ht="15" customHeight="1" spans="1:5">
-      <c r="A96" s="15" t="s">
+    <row r="96" s="19" customFormat="1" ht="15" customHeight="1" spans="1:5">
+      <c r="A96" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="B96" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C96" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D96" s="21"/>
-      <c r="E96" s="6" t="s">
+      <c r="C96" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D96" s="57"/>
+      <c r="E96" s="42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="97" s="13" customFormat="1" spans="1:5">
-      <c r="A97" s="24"/>
-      <c r="B97" s="24"/>
-      <c r="C97" s="20"/>
-      <c r="E97" s="25"/>
-    </row>
-    <row r="98" s="13" customFormat="1" spans="1:5">
-      <c r="A98" s="24"/>
-      <c r="B98" s="24"/>
-      <c r="C98" s="20"/>
-      <c r="E98" s="25"/>
-    </row>
-    <row r="99" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A99" s="3" t="s">
+    <row r="97" s="19" customFormat="1" spans="1:5">
+      <c r="A97" s="46"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="56"/>
+      <c r="E97" s="59"/>
+    </row>
+    <row r="98" s="19" customFormat="1" spans="1:5">
+      <c r="A98" s="46"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="56"/>
+      <c r="E98" s="59"/>
+    </row>
+    <row r="99" s="52" customFormat="1" spans="1:5">
+      <c r="A99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="3" t="s">
+      <c r="D99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E99" s="14" t="s">
+      <c r="E99" s="45" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="100" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A100" s="3" t="s">
+    <row r="100" s="52" customFormat="1" spans="1:5">
+      <c r="A100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D100" s="3" t="s">
+      <c r="D100" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E100" s="22" t="s">
+      <c r="E100" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="101" s="13" customFormat="1" spans="1:5">
-      <c r="A101" s="15" t="s">
+    <row r="101" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A101" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C101" s="15" t="s">
+      <c r="C101" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D101" s="16"/>
-      <c r="E101" s="6" t="s">
+      <c r="D101" s="53"/>
+      <c r="E101" s="42" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="102" s="13" customFormat="1" spans="1:5">
-      <c r="A102" s="15" t="s">
+    <row r="102" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A102" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C102" s="15" t="s">
+      <c r="C102" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D102" s="21"/>
-      <c r="E102" s="6" t="s">
+      <c r="D102" s="57"/>
+      <c r="E102" s="42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="103" s="13" customFormat="1" spans="1:5">
-      <c r="A103" s="15" t="s">
+    <row r="103" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A103" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="B103" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C103" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D103" s="21"/>
-      <c r="E103" s="6" t="s">
+      <c r="C103" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="57"/>
+      <c r="E103" s="42" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="25"/>
+      <c r="E104" s="59"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="25"/>
-    </row>
-    <row r="106" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A106" s="3" t="s">
+      <c r="E105" s="59"/>
+    </row>
+    <row r="106" s="52" customFormat="1" spans="1:5">
+      <c r="A106" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="3" t="s">
+      <c r="D106" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E106" s="14" t="s">
+      <c r="E106" s="45" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="107" s="12" customFormat="1" ht="15" spans="1:5">
-      <c r="A107" s="3" t="s">
+    <row r="107" s="52" customFormat="1" spans="1:5">
+      <c r="A107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D107" s="3" t="s">
+      <c r="D107" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E107" s="22" t="s">
+      <c r="E107" s="58" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="108" s="13" customFormat="1" spans="1:5">
-      <c r="A108" s="15" t="s">
+    <row r="108" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A108" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="B108" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C108" s="15" t="s">
+      <c r="C108" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D108" s="16"/>
-      <c r="E108" s="6" t="s">
+      <c r="D108" s="53"/>
+      <c r="E108" s="42" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="109" s="13" customFormat="1" spans="1:5">
-      <c r="A109" s="15" t="s">
+    <row r="109" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A109" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="B109" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C109" s="15" t="s">
+      <c r="C109" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D109" s="21"/>
-      <c r="E109" s="21" t="s">
+      <c r="D109" s="57"/>
+      <c r="E109" s="57" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="110" s="13" customFormat="1" spans="1:5">
-      <c r="A110" s="15" t="s">
+    <row r="110" s="19" customFormat="1" ht="15" spans="1:5">
+      <c r="A110" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="B110" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="C110" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="D110" s="21"/>
-      <c r="E110" s="21" t="s">
+      <c r="C110" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" s="57"/>
+      <c r="E110" s="57" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="113" spans="4:4">
-      <c r="D113" s="24"/>
+      <c r="D113" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3570,457 +3757,1479 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="23.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="74.75" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="23.125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="46.375" style="48" customWidth="1"/>
+    <col min="3" max="3" width="17.875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="74.75" style="48" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="47" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+    <row r="2" s="47" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A3" s="5" t="s">
+    <row r="3" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" s="2" customFormat="1" customHeight="1" spans="1:4">
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A4" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A5" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="34"/>
+    </row>
+    <row r="7" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A7" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A8" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="42"/>
+    </row>
+    <row r="9" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A9" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A10" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A11" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="49"/>
+    </row>
+    <row r="12" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A12" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="34"/>
+    </row>
+    <row r="13" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A14" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="34"/>
+    </row>
+    <row r="15" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A15" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="34" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="16" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A16" s="34" t="s">
+        <v>178</v>
+      </c>
+      <c r="B16" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16" s="42"/>
+    </row>
+    <row r="17" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A17" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="42"/>
+    </row>
+    <row r="18" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A18" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="42"/>
+    </row>
+    <row r="19" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A19" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="34"/>
+    </row>
+    <row r="20" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A20" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="42"/>
+    </row>
+    <row r="21" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A21" s="13" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="34"/>
+    </row>
+    <row r="22" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A22" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="23" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A23" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="34"/>
+    </row>
+    <row r="24" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A24" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D24" s="34" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="25" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A25" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="26" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A26" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" s="42"/>
+    </row>
+    <row r="27" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A27" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" s="42"/>
+    </row>
+    <row r="28" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A28" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="42"/>
+    </row>
+    <row r="29" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A29" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="D29" s="42"/>
+    </row>
+    <row r="30" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A30" s="34" t="s">
+        <v>277</v>
+      </c>
+      <c r="B30" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" s="42"/>
+    </row>
+    <row r="31" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A31" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="42"/>
+    </row>
+    <row r="32" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A32" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D32" s="42"/>
+    </row>
+    <row r="33" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A33" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="42"/>
+    </row>
+    <row r="34" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A34" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="50"/>
+    </row>
+    <row r="35" s="48" customFormat="1" customHeight="1" spans="1:4">
+      <c r="A35" s="33" t="s">
+        <v>281</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="51" t="s">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" customHeight="1" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="28.2019230769231" customWidth="1"/>
+    <col min="2" max="2" width="37.1826923076923" customWidth="1"/>
+    <col min="3" max="3" width="25.6346153846154" customWidth="1"/>
+    <col min="4" max="4" width="26.9134615384615" customWidth="1"/>
+    <col min="5" max="5" width="28.5192307692308" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="6"/>
-    </row>
-    <row r="5" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A5" s="5" t="s">
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="E5" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7"/>
-    </row>
-    <row r="6" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A6" s="5" t="s">
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="7"/>
-    </row>
-    <row r="7" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A7" s="5" t="s">
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="E7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="7"/>
-    </row>
-    <row r="8" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A8" s="5" t="s">
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="E8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="6"/>
-    </row>
-    <row r="9" s="2" customFormat="1" customHeight="1" spans="1:4">
+    </row>
+    <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="E9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A10" s="5" t="s">
+    </row>
+    <row r="10" customHeight="1" spans="1:5">
+      <c r="A10" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A11" s="5" t="s">
+    </row>
+    <row r="11" customHeight="1" spans="1:5">
+      <c r="A11" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="E11" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A12" s="5" t="s">
+    </row>
+    <row r="12" customHeight="1" spans="1:5">
+      <c r="A12" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="E12" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="7"/>
-    </row>
-    <row r="13" s="2" customFormat="1" customHeight="1" spans="1:4">
+    </row>
+    <row r="13" customHeight="1" spans="1:5">
       <c r="A13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="E13" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="7"/>
-    </row>
-    <row r="14" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A14" s="5" t="s">
+    </row>
+    <row r="14" customHeight="1" spans="1:5">
+      <c r="A14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="E14" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" s="2" customFormat="1" customHeight="1" spans="1:4">
+    </row>
+    <row r="15" customHeight="1" spans="1:5">
       <c r="A15" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="E15" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A16" s="7" t="s">
+    </row>
+    <row r="16" customHeight="1" spans="1:5">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="D16" s="20" t="s">
         <v>178</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="E16" s="20" t="s">
         <v>179</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A17" s="5" t="s">
+    </row>
+    <row r="17" customHeight="1" spans="1:5">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>257</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="E17" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A18" s="5" t="s">
+    </row>
+    <row r="18" customHeight="1" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>259</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="E18" s="21" t="s">
         <v>260</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" s="6"/>
-    </row>
-    <row r="19" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A19" s="5" t="s">
+    </row>
+    <row r="19" customHeight="1" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>261</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="E19" s="21" t="s">
         <v>262</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D19" s="7"/>
-    </row>
-    <row r="20" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A20" s="5" t="s">
+    </row>
+    <row r="20" customHeight="1" spans="1:5">
+      <c r="A20" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>263</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="E20" s="21" t="s">
         <v>264</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D20" s="6"/>
-    </row>
-    <row r="21" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A21" s="5" t="s">
+    </row>
+    <row r="21" customHeight="1" spans="1:5">
+      <c r="A21" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="E21" s="23" t="s">
         <v>266</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="7"/>
-    </row>
-    <row r="22" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A22" s="5" t="s">
+    </row>
+    <row r="22" customHeight="1" spans="1:5">
+      <c r="A22" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="23" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="E22" s="23" t="s">
         <v>268</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="7"/>
-    </row>
-    <row r="23" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A23" s="5" t="s">
+    </row>
+    <row r="23" customHeight="1" spans="1:5">
+      <c r="A23" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="E23" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" s="2" customFormat="1" customHeight="1" spans="1:4">
+    </row>
+    <row r="24" customHeight="1" spans="1:5">
       <c r="A24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="E24" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="1" customHeight="1" spans="1:4">
+    </row>
+    <row r="25" customHeight="1" spans="1:5">
       <c r="A25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="E25" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A26" s="7" t="s">
+    </row>
+    <row r="26" customHeight="1" spans="1:5">
+      <c r="A26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="E26" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" s="6"/>
-    </row>
-    <row r="27" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A27" s="7" t="s">
+    </row>
+    <row r="27" customHeight="1" spans="1:5">
+      <c r="A27" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="25" t="s">
         <v>276</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="E27" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="6"/>
-    </row>
-    <row r="28" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A28" s="7" t="s">
+    </row>
+    <row r="28" customHeight="1" spans="1:5">
+      <c r="A28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="E28" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D28" s="6"/>
-    </row>
-    <row r="29" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A29" s="7" t="s">
+    </row>
+    <row r="29" customHeight="1" spans="1:5">
+      <c r="A29" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="25" t="s">
         <v>117</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="E29" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="6"/>
-    </row>
-    <row r="30" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A30" s="7" t="s">
+    </row>
+    <row r="30" customHeight="1" spans="1:5">
+      <c r="A30" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="E30" s="27" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="6"/>
-    </row>
-    <row r="31" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A31" s="7" t="s">
+    </row>
+    <row r="31" customHeight="1" spans="1:5">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="D31" s="27" t="s">
         <v>150</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="E31" s="27" t="s">
         <v>151</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D31" s="6"/>
-    </row>
-    <row r="32" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A32" s="7" t="s">
+    </row>
+    <row r="32" customHeight="1" spans="1:5">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="E32" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A33" s="7" t="s">
+    </row>
+    <row r="33" customHeight="1" spans="1:5">
+      <c r="A33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="29" t="s">
         <v>279</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="E33" s="29" t="s">
         <v>280</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A34" s="5" t="s">
+    </row>
+    <row r="34" customHeight="1" spans="1:5">
+      <c r="A34" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="E34" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="9"/>
-    </row>
-    <row r="35" s="2" customFormat="1" customHeight="1" spans="1:4">
-      <c r="A35" s="10" t="s">
+    </row>
+    <row r="35" customHeight="1" spans="1:5">
+      <c r="A35" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="E35" s="33" t="s">
         <v>282</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="11" t="s">
-        <v>283</v>
+    </row>
+    <row r="36" customHeight="1" spans="1:2">
+      <c r="A36" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:2">
+      <c r="A37" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" s="35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:2">
+      <c r="A38" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:2">
+      <c r="A39" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:2">
+      <c r="A40" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="B40" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:2">
+      <c r="A41" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="25" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:2">
+      <c r="A42" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:2">
+      <c r="A43" s="36" t="s">
+        <v>123</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:2">
+      <c r="A44" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:2">
+      <c r="A45" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:2">
+      <c r="A46" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:2">
+      <c r="A47" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B47" s="35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:2">
+      <c r="A48" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:2">
+      <c r="A49" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:2">
+      <c r="A50" s="27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:2">
+      <c r="A51" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:2">
+      <c r="A52" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="34" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:2">
+      <c r="A53" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B53" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:2">
+      <c r="A54" s="19"/>
+      <c r="B54" s="19"/>
+    </row>
+    <row r="55" customHeight="1" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:2">
+      <c r="A57" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:2">
+      <c r="A58" s="38" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:2">
+      <c r="A59" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="B59" s="39" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:2">
+      <c r="A60" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B60" s="40" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:2">
+      <c r="A61" s="41" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" s="41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:2">
+      <c r="A62" s="19"/>
+      <c r="B62" s="19"/>
+    </row>
+    <row r="63" customHeight="1" spans="1:2">
+      <c r="A63" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:2">
+      <c r="A65" s="42" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="42" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:2">
+      <c r="A66" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:2">
+      <c r="A67" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="43" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:2">
+      <c r="A68" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="B68" s="43" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:2">
+      <c r="A69" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="B69" s="43" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:2">
+      <c r="A70" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" s="43" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:2">
+      <c r="A71" s="36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:2">
+      <c r="A72" s="36" t="s">
+        <v>196</v>
+      </c>
+      <c r="B72" s="36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:2">
+      <c r="A73" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:2">
+      <c r="A74" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:2">
+      <c r="A75" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="34" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:2">
+      <c r="A76" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="B76" s="34" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:2">
+      <c r="A77" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="B77" s="34" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="78" customHeight="1" spans="1:2">
+      <c r="A78" s="44" t="s">
+        <v>210</v>
+      </c>
+      <c r="B78" s="43" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="79" customHeight="1" spans="1:2">
+      <c r="A79" s="44" t="s">
+        <v>213</v>
+      </c>
+      <c r="B79" s="43" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="80" customHeight="1" spans="1:2">
+      <c r="A80" s="44" t="s">
+        <v>216</v>
+      </c>
+      <c r="B80" s="43" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="81" customHeight="1" spans="1:2">
+      <c r="A81" s="44" t="s">
+        <v>219</v>
+      </c>
+      <c r="B81" s="43" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="82" customHeight="1" spans="1:2">
+      <c r="A82" s="42" t="s">
+        <v>222</v>
+      </c>
+      <c r="B82" s="42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="83" customHeight="1" spans="1:2">
+      <c r="A83" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="42" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:2">
+      <c r="A84" s="42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B84" s="42" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:2">
+      <c r="A85" s="42" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" s="42" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:2">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="88" customHeight="1" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="45" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="89" customHeight="1" spans="1:2">
+      <c r="A89" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:2">
+      <c r="A90" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="91" customHeight="1" spans="1:2">
+      <c r="A91" s="46"/>
+      <c r="B91" s="46"/>
+    </row>
+    <row r="92" customHeight="1" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" customHeight="1" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="94" customHeight="1" spans="1:2">
+      <c r="A94" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:2">
+      <c r="A95" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:2">
+      <c r="A96" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" customHeight="1" spans="1:2">
+      <c r="A97" s="19"/>
+      <c r="B97" s="19"/>
+    </row>
+    <row r="98" customHeight="1" spans="1:2">
+      <c r="A98" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" customHeight="1" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="100" customHeight="1" spans="1:2">
+      <c r="A100" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" customHeight="1" spans="1:2">
+      <c r="A101" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="102" customHeight="1" spans="1:2">
+      <c r="A102" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>248</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
 </file>